--- a/Docs/Перечень сигналов.xlsx
+++ b/Docs/Перечень сигналов.xlsx
@@ -271,9 +271,6 @@
     <t>Режим работы 2 насоса</t>
   </si>
   <si>
-    <t>Режим работы только насос A</t>
-  </si>
-  <si>
     <t>Режим работы только насос B</t>
   </si>
   <si>
@@ -299,6 +296,9 @@
   </si>
   <si>
     <t>0…10 В, 4…20 мА, 0..4000 Ом</t>
+  </si>
+  <si>
+    <t>Режим работы только насос A(открыт клапан обратки)</t>
   </si>
 </sst>
 </file>
@@ -716,6 +716,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,42 +771,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1143,26 +1143,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1172,19 +1172,19 @@
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="17"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>91</v>
+      <c r="B3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -1198,9 +1198,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1213,9 +1213,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,9 +1228,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1243,9 +1243,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,9 +1258,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1269,13 +1269,13 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1284,13 +1284,13 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1299,10 +1299,10 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="29" t="s">
-        <v>94</v>
+      <c r="A11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>15</v>
@@ -1316,9 +1316,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1327,9 +1327,9 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1338,9 +1338,9 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1349,10 +1349,10 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="30" t="s">
-        <v>91</v>
+      <c r="A15" s="25"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -1362,13 +1362,13 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1377,13 +1377,13 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1392,13 +1392,13 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1407,13 +1407,13 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1426,9 +1426,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1441,9 +1441,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1452,9 +1452,9 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1463,10 +1463,10 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="27" t="s">
-        <v>92</v>
+      <c r="A23" s="25"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>27</v>
@@ -1476,9 +1476,9 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1487,9 +1487,9 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1498,9 +1498,9 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="31"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="7" t="s">
         <v>30</v>
       </c>
@@ -1509,14 +1509,14 @@
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="32">
+      <c r="A27" s="24">
         <v>2</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>91</v>
+      <c r="C27" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>7</v>
@@ -1530,9 +1530,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1545,9 +1545,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1558,9 +1558,9 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1573,9 +1573,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1588,9 +1588,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1603,9 +1603,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1614,9 +1614,9 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1625,10 +1625,10 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="29" t="s">
-        <v>91</v>
+      <c r="A35" s="25"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>32</v>
@@ -1642,9 +1642,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="2" t="s">
         <v>33</v>
       </c>
@@ -1657,9 +1657,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="2" t="s">
         <v>34</v>
       </c>
@@ -1672,9 +1672,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="2" t="s">
         <v>35</v>
       </c>
@@ -1687,9 +1687,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1702,9 +1702,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="2" t="s">
         <v>37</v>
       </c>
@@ -1717,9 +1717,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="27"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="2" t="s">
         <v>38</v>
       </c>
@@ -1728,9 +1728,9 @@
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="34"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="31"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="7" t="s">
         <v>39</v>
       </c>
@@ -1740,6 +1740,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="C27:C34"/>
     <mergeCell ref="C35:C42"/>
     <mergeCell ref="B27:B42"/>
@@ -1750,11 +1755,6 @@
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C22"/>
     <mergeCell ref="C23:C26"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
